--- a/biology/Zoologie/Furcifer_angeli/Furcifer_angeli.xlsx
+++ b/biology/Zoologie/Furcifer_angeli/Furcifer_angeli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Furcifer angeli est une espèce de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Furcifer angeli est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1]. Elle se rencontre dans les régions de Boeny et de Sofia.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre dans les régions de Boeny et de Sofia.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fernand Angel[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fernand Angel.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brygoo &amp; Domergue, 1968 : Les Caméléons à rostre impair et rigide de l'Ouest de Madagascar. Validité des espèces Chamaeleo labordi Grandidier, 1872, et C. antimena Grandidier, 1872. Description d'une espèce nouvelle C. angeli n.sp. et de la femelle de C. rhinoceratus Gray, 1845. Mémoires du Muséum national d'histoire naturelle: Zoologie, ser. A, vol. 52, n. 2, p. 71-110.</t>
         </is>
